--- a/teaching/traditional_assets/database/data/canada/canada_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0276</v>
-      </c>
-      <c r="E2">
-        <v>-0.0143</v>
+        <v>0.109</v>
       </c>
       <c r="G2">
-        <v>0.01265209405477246</v>
+        <v>0.01099234165448835</v>
       </c>
       <c r="H2">
-        <v>-0.00192520938537062</v>
+        <v>-0.0007461433174323404</v>
       </c>
       <c r="I2">
-        <v>-0.00583641718673029</v>
+        <v>-0.005142886927916572</v>
       </c>
       <c r="J2">
-        <v>-0.00555508628644908</v>
+        <v>-0.005058675375678854</v>
       </c>
       <c r="K2">
-        <v>-34.323</v>
+        <v>49.30499999999999</v>
       </c>
       <c r="L2">
-        <v>-0.03450598523972627</v>
+        <v>0.04759197447089462</v>
       </c>
       <c r="M2">
-        <v>75.511</v>
+        <v>59.824</v>
       </c>
       <c r="N2">
-        <v>0.1491890631698947</v>
+        <v>0.05237840914065577</v>
       </c>
       <c r="O2">
-        <v>-2.200011653992949</v>
+        <v>1.213345502484535</v>
       </c>
       <c r="P2">
-        <v>26.293</v>
+        <v>17.347</v>
       </c>
       <c r="Q2">
-        <v>0.05194776970144802</v>
+        <v>0.01518802258897693</v>
       </c>
       <c r="R2">
-        <v>-0.7660460915421147</v>
+        <v>0.351830443159923</v>
       </c>
       <c r="S2">
-        <v>49.218</v>
+        <v>42.477</v>
       </c>
       <c r="T2">
-        <v>0.651799075631365</v>
+        <v>0.7100327627707943</v>
       </c>
       <c r="U2">
-        <v>702.813</v>
+        <v>1068.984</v>
       </c>
       <c r="V2">
-        <v>1.388566077175818</v>
+        <v>0.9359401129448846</v>
       </c>
       <c r="W2">
-        <v>-0.0101685393258427</v>
+        <v>-0.01022222222222222</v>
       </c>
       <c r="X2">
-        <v>0.04194708959876264</v>
+        <v>0.029072360495534</v>
       </c>
       <c r="Y2">
-        <v>-0.05211562892460533</v>
+        <v>-0.03929458271775622</v>
       </c>
       <c r="Z2">
-        <v>-30.05338744800593</v>
+        <v>6.525453194089265</v>
       </c>
       <c r="AA2">
-        <v>-0.002823048195525404</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04190534344985802</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC2">
-        <v>-0.04472188742935828</v>
+        <v>-0.02925153039536553</v>
       </c>
       <c r="AD2">
-        <v>338.849</v>
+        <v>258.417</v>
       </c>
       <c r="AE2">
-        <v>113.3323333319453</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>452.1813333319453</v>
+        <v>258.417</v>
       </c>
       <c r="AG2">
-        <v>-250.6316666680547</v>
+        <v>-810.567</v>
       </c>
       <c r="AH2">
-        <v>0.4718458225513077</v>
+        <v>0.1845088453462062</v>
       </c>
       <c r="AI2">
-        <v>0.3688929328762741</v>
+        <v>0.224438571365294</v>
       </c>
       <c r="AJ2">
-        <v>-0.9809023474604504</v>
+        <v>-2.444537265179457</v>
       </c>
       <c r="AK2">
-        <v>-0.4792500983212813</v>
+        <v>-9.835903845453775</v>
       </c>
       <c r="AL2">
-        <v>0.259</v>
+        <v>0.258</v>
       </c>
       <c r="AM2">
-        <v>0.04699999999999999</v>
+        <v>0.133</v>
       </c>
       <c r="AN2">
-        <v>12.90656661842005</v>
+        <v>-535.0248447204968</v>
       </c>
       <c r="AO2">
-        <v>-42.01930501930502</v>
+        <v>-20.65116279069768</v>
       </c>
       <c r="AP2">
-        <v>-9.546418323609915</v>
+        <v>1678.192546583851</v>
       </c>
       <c r="AQ2">
-        <v>-231.5531914893618</v>
+        <v>-40.06015037593985</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +722,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.985</v>
+        <v>-1.63</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,67 +746,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.6697247706422018</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8.073770491803279</v>
+        <v>5.275080906148867</v>
       </c>
       <c r="X3">
-        <v>0.0678821311096245</v>
+        <v>0.02944914255414397</v>
       </c>
       <c r="Y3">
-        <v>8.005888360693653</v>
+        <v>5.245631763594723</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>17.02500000000001</v>
+        <v>23.36842105263159</v>
       </c>
       <c r="AB3">
-        <v>0.04355720917804691</v>
+        <v>0.03104088885421042</v>
       </c>
       <c r="AC3">
-        <v>16.98144279082196</v>
+        <v>23.33738016377738</v>
       </c>
       <c r="AD3">
-        <v>0.509</v>
+        <v>0.167</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.509</v>
+        <v>0.167</v>
       </c>
       <c r="AG3">
-        <v>0.29</v>
+        <v>0.167</v>
       </c>
       <c r="AH3">
-        <v>0.6088516746411483</v>
+        <v>0.03100055689623167</v>
       </c>
       <c r="AI3">
-        <v>2.545</v>
+        <v>-2.650793650793651</v>
       </c>
       <c r="AJ3">
-        <v>0.4700162074554295</v>
+        <v>0.03100055689623167</v>
       </c>
       <c r="AK3">
-        <v>-15.26315789473687</v>
+        <v>-2.650793650793651</v>
       </c>
       <c r="AL3">
-        <v>0.143</v>
+        <v>0.199</v>
       </c>
       <c r="AM3">
-        <v>0.143</v>
+        <v>0.199</v>
       </c>
       <c r="AO3">
-        <v>-4.762237762237763</v>
+        <v>-2.231155778894472</v>
       </c>
       <c r="AQ3">
-        <v>-4.762237762237763</v>
+        <v>-2.231155778894472</v>
       </c>
     </row>
     <row r="4">
@@ -828,8 +825,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="G4">
+        <v>1.180672268907563</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1.672268907563025</v>
+      </c>
+      <c r="J4">
+        <v>-1.672268907563025</v>
+      </c>
       <c r="K4">
-        <v>-0.057</v>
+        <v>-0.644</v>
+      </c>
+      <c r="L4">
+        <v>-2.705882352941177</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -853,61 +865,64 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.008999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="V4">
-        <v>0.003474903474903475</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="W4">
-        <v>0.6551724137931035</v>
+        <v>4.503496503496504</v>
       </c>
       <c r="X4">
-        <v>0.04190534344985802</v>
+        <v>0.029072360495534</v>
       </c>
       <c r="Y4">
-        <v>0.6132670703432455</v>
+        <v>4.47442414300097</v>
       </c>
       <c r="Z4">
-        <v>-0</v>
+        <v>-1.56578947368421</v>
       </c>
       <c r="AA4">
-        <v>0.2133333333333333</v>
+        <v>2.618421052631579</v>
       </c>
       <c r="AB4">
-        <v>0.04190534344985802</v>
+        <v>0.02903072108431782</v>
       </c>
       <c r="AC4">
-        <v>0.1714279898834753</v>
+        <v>2.589390331547262</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AG4">
-        <v>-0.008999999999999999</v>
+        <v>-0.06</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="AI4">
-        <v>-0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="AJ4">
-        <v>-0.003487020534676482</v>
+        <v>-0.01204819277108434</v>
       </c>
       <c r="AK4">
-        <v>0.05921052631578947</v>
+        <v>-0.05555555555555556</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-0.114</v>
+      </c>
+      <c r="AQ4">
+        <v>3.491228070175439</v>
       </c>
     </row>
     <row r="5">
@@ -927,115 +942,106 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.04480000000000001</v>
-      </c>
-      <c r="E5">
-        <v>-0.0143</v>
+        <v>0.115</v>
       </c>
       <c r="G5">
-        <v>0.01620473848904783</v>
+        <v>0.01151668943978138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00420749835302608</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003250708473312523</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <v>80.8</v>
       </c>
       <c r="L5">
-        <v>0.06146624944121592</v>
+        <v>0.07886004294358774</v>
       </c>
       <c r="M5">
-        <v>67.5</v>
+        <v>56</v>
       </c>
       <c r="N5">
-        <v>0.1883370535714286</v>
+        <v>0.06483732777584809</v>
       </c>
       <c r="O5">
-        <v>1.227272727272727</v>
+        <v>0.6930693069306931</v>
       </c>
       <c r="P5">
-        <v>20.1</v>
+        <v>14.1</v>
       </c>
       <c r="Q5">
-        <v>0.05608258928571429</v>
+        <v>0.0163251128864189</v>
       </c>
       <c r="R5">
-        <v>0.3654545454545455</v>
+        <v>0.1745049504950495</v>
       </c>
       <c r="S5">
-        <v>47.4</v>
+        <v>41.9</v>
       </c>
       <c r="T5">
-        <v>0.7022222222222222</v>
+        <v>0.7482142857142857</v>
       </c>
       <c r="U5">
-        <v>346.8</v>
+        <v>678.9</v>
       </c>
       <c r="V5">
-        <v>0.9676339285714287</v>
+        <v>0.7860368183397012</v>
       </c>
       <c r="W5">
-        <v>0.1200087279074842</v>
+        <v>0.169640982574008</v>
       </c>
       <c r="X5">
-        <v>0.05885805021782144</v>
+        <v>0.03298177272823039</v>
       </c>
       <c r="Y5">
-        <v>0.06115067768966274</v>
+        <v>0.1366592098457776</v>
       </c>
       <c r="Z5">
-        <v>46.66334071987228</v>
+        <v>3.912180221458571</v>
       </c>
       <c r="AA5">
-        <v>0.1516889170711581</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04186507153908334</v>
+        <v>0.02889862920102756</v>
       </c>
       <c r="AC5">
-        <v>0.1098238455320747</v>
+        <v>-0.02889862920102756</v>
       </c>
       <c r="AD5">
-        <v>257.9</v>
+        <v>238.5</v>
       </c>
       <c r="AE5">
-        <v>106.1756523685613</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>364.0756523685613</v>
+        <v>238.5</v>
       </c>
       <c r="AG5">
-        <v>17.27565236856128</v>
+        <v>-440.4</v>
       </c>
       <c r="AH5">
-        <v>0.5039279194737942</v>
+        <v>0.2163854109961894</v>
       </c>
       <c r="AI5">
-        <v>0.3651434587773722</v>
+        <v>0.2524076621864748</v>
       </c>
       <c r="AJ5">
-        <v>0.04598555232323864</v>
+        <v>-1.040396881644224</v>
       </c>
       <c r="AK5">
-        <v>0.02656666031649273</v>
+        <v>-1.655639097744361</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>10.316</v>
-      </c>
-      <c r="AP5">
-        <v>0.6910260947424512</v>
       </c>
     </row>
     <row r="6">
@@ -1061,25 +1067,25 @@
         <v>-0</v>
       </c>
       <c r="I6">
-        <v>-0.005569008279474548</v>
+        <v>-0</v>
       </c>
       <c r="J6">
-        <v>-0.005569008279474548</v>
+        <v>-0</v>
       </c>
       <c r="K6">
-        <v>-6.82</v>
+        <v>-7.82</v>
       </c>
       <c r="L6">
-        <v>1.34251968503937</v>
+        <v>1.109219858156028</v>
       </c>
       <c r="M6">
-        <v>0.52</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.03312101910828025</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0.07624633431085044</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1091,73 +1097,64 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.52</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.486</v>
+        <v>0.518</v>
       </c>
       <c r="V6">
-        <v>0.03095541401273886</v>
+        <v>0.04752293577981651</v>
       </c>
       <c r="W6">
-        <v>-0.2695652173913043</v>
+        <v>-0.425</v>
       </c>
       <c r="X6">
-        <v>0.04198883574766725</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y6">
-        <v>-0.3115540531389716</v>
+        <v>-0.4539862332251739</v>
       </c>
       <c r="Z6">
-        <v>-0.2357467515224355</v>
+        <v>-0.3935469465222731</v>
       </c>
       <c r="AA6">
-        <v>0.001312875611087673</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04195068191596975</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC6">
-        <v>-0.04063780630488208</v>
+        <v>-0.02898623322517386</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.07854718970134647</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.07854718970134647</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-0.4074528102986535</v>
+        <v>-0.518</v>
       </c>
       <c r="AH6">
-        <v>0.004978100249471269</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004250723224882268</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.02664388118240038</v>
+        <v>-0.04989404738971297</v>
       </c>
       <c r="AK6">
-        <v>-0.02264564355467542</v>
+        <v>-0.05189340813464236</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>-9.260291143151218</v>
       </c>
     </row>
     <row r="7">
@@ -1176,23 +1173,8 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="G7">
-        <v>-0</v>
-      </c>
-      <c r="H7">
-        <v>-0</v>
-      </c>
-      <c r="I7">
-        <v>-0</v>
-      </c>
-      <c r="J7">
-        <v>-0</v>
-      </c>
       <c r="K7">
-        <v>-0.66</v>
-      </c>
-      <c r="L7">
-        <v>1.197822141560799</v>
+        <v>-0.023</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1216,31 +1198,31 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="V7">
-        <v>0.857142857142857</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="W7">
-        <v>-0.2214765100671141</v>
+        <v>-0.01022222222222222</v>
       </c>
       <c r="X7">
-        <v>0.04190534344985802</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y7">
-        <v>-0.2633818535169721</v>
+        <v>-0.03920845544739608</v>
       </c>
       <c r="Z7">
-        <v>-0.3319277108433735</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04190534344985802</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC7">
-        <v>-0.04190534344985802</v>
+        <v>-0.02898623322517386</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1252,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-1.92</v>
+        <v>-1.7</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1261,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-5.999999999999995</v>
+        <v>-0.7692307692307693</v>
       </c>
       <c r="AK7">
-        <v>-5.818181818181817</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.042</v>
+        <v>-0.011</v>
       </c>
       <c r="AQ7">
         <v>-0</v>
@@ -1284,7 +1266,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hampton Financial Corporation (TSXV:HFC)</t>
+          <t>RF Capital Group Inc. (TSX:RCG)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1292,68 +1274,101 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.392</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
-        <v>0</v>
+        <v>-14.8</v>
+      </c>
+      <c r="L8">
+        <v>-1.013698630136986</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>2.874</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.01331171838814266</v>
+      </c>
+      <c r="O8">
+        <v>-0.1941891891891892</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>2.83</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.01310792033348773</v>
+      </c>
+      <c r="R8">
+        <v>-0.1912162162162162</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.04400000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.0153096729297147</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>379.9</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.759610930986568</v>
       </c>
       <c r="W8">
-        <v>-0</v>
+        <v>-0.1646273637374861</v>
       </c>
       <c r="X8">
-        <v>0.04190534344985802</v>
+        <v>0.02990439221295009</v>
       </c>
       <c r="Y8">
-        <v>-0.04190534344985802</v>
+        <v>-0.1945317559504362</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-0.09681697612732093</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.04190534344985802</v>
+        <v>0.02925153039536553</v>
       </c>
       <c r="AC8">
-        <v>-0.04190534344985802</v>
+        <v>-0.02925153039536553</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>-366.2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.05966898954703832</v>
+      </c>
+      <c r="AI8">
+        <v>0.08855850032320621</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>2.436460412508317</v>
+      </c>
+      <c r="AK8">
+        <v>1.626110124333925</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1370,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GMP Capital Inc. (TSX:GMP)</t>
+          <t>Hampton Financial Corporation (TSXV:HFC)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1379,7 +1394,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.1</v>
+        <v>0.109</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1388,103 +1403,94 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.008815901628414304</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.005721247500089489</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-37.5</v>
+        <v>-2.02</v>
       </c>
       <c r="L9">
-        <v>-0.3036437246963563</v>
+        <v>-0.3201267828843106</v>
       </c>
       <c r="M9">
-        <v>5.75</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.05491881566380134</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>-0.1533333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>5.75</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.05491881566380134</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>-0.1533333333333333</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>340.1</v>
+        <v>0.188</v>
       </c>
       <c r="V9">
-        <v>3.248328557784145</v>
+        <v>0.05513196480938416</v>
       </c>
       <c r="W9">
-        <v>-0.2640845070422535</v>
+        <v>2.603092783505155</v>
       </c>
       <c r="X9">
-        <v>0.04514997234403864</v>
+        <v>0.05329988587604806</v>
       </c>
       <c r="Y9">
-        <v>-0.3092344793862921</v>
+        <v>2.549792897629107</v>
       </c>
       <c r="Z9">
-        <v>-0.9868645589904117</v>
+        <v>6.015252621544328</v>
       </c>
       <c r="AA9">
-        <v>-0.005646096391050809</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04189233501780773</v>
+        <v>0.06258840340123893</v>
       </c>
       <c r="AC9">
-        <v>-0.04753843140885854</v>
+        <v>-0.06258840340123893</v>
       </c>
       <c r="AD9">
-        <v>14.6</v>
+        <v>5.73</v>
       </c>
       <c r="AE9">
-        <v>5.756180744454168</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>20.35618074445417</v>
+        <v>5.73</v>
       </c>
       <c r="AG9">
-        <v>-319.7438192555459</v>
+        <v>5.542000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.1627762868118527</v>
+        <v>0.6269146608315098</v>
       </c>
       <c r="AI9">
-        <v>0.1043606035284936</v>
+        <v>1.725903614457831</v>
       </c>
       <c r="AJ9">
-        <v>1.486877513441018</v>
+        <v>0.6190795352993744</v>
       </c>
       <c r="AK9">
-        <v>2.204463595185702</v>
+        <v>1.769476372924649</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>6.517857142857142</v>
-      </c>
-      <c r="AP9">
-        <v>-142.7427764533687</v>
       </c>
     </row>
     <row r="10">
@@ -1504,22 +1510,22 @@
         </is>
       </c>
       <c r="G10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.294117647058824</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="J10">
-        <v>3.294117647058824</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="K10">
-        <v>-0.181</v>
+        <v>0.008</v>
       </c>
       <c r="L10">
-        <v>2.129411764705882</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1528,7 +1534,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1537,37 +1543,37 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>8.859999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="V10">
-        <v>1.687619047619048</v>
+        <v>0.8576923076923078</v>
       </c>
       <c r="W10">
-        <v>-0.02033707865168539</v>
+        <v>0.0009400705052878966</v>
       </c>
       <c r="X10">
-        <v>0.04190534344985802</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y10">
-        <v>-0.06224242210154342</v>
+        <v>-0.02804616271988597</v>
       </c>
       <c r="Z10">
-        <v>-0.01443123938879457</v>
+        <v>-0.6228571428571434</v>
       </c>
       <c r="AA10">
-        <v>-0.04753820033955857</v>
+        <v>-0.0857142857142858</v>
       </c>
       <c r="AB10">
-        <v>0.04190534344985802</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC10">
-        <v>-0.0894435437894166</v>
+        <v>-0.1147005189394597</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1579,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-8.859999999999999</v>
+        <v>-6.69</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1588,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>2.454293628808864</v>
+        <v>-6.027027027027031</v>
       </c>
       <c r="AK10">
-        <v>25.31428571428574</v>
+        <v>-3.758426966292134</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1608,7 +1614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gravitas Financial Inc. (CNSX:GFI)</t>
+          <t>Quinsam Capital Corporation (CNSX:QCA)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1623,100 +1629,103 @@
         <v>-0</v>
       </c>
       <c r="I11">
-        <v>-0.01330843682841351</v>
+        <v>1.318493150684932</v>
       </c>
       <c r="J11">
-        <v>-0.01330843682841351</v>
+        <v>1.318493150684932</v>
       </c>
       <c r="K11">
-        <v>-31.2</v>
+        <v>-3.91</v>
       </c>
       <c r="L11">
-        <v>2.294117647058823</v>
+        <v>1.339041095890411</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.06884057971014491</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0.2429667519181586</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.417</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.03021739130434782</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0.1066496163682864</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.5610526315789474</v>
       </c>
       <c r="U11">
-        <v>0.245</v>
+        <v>0.316</v>
       </c>
       <c r="V11">
-        <v>0.8876811594202898</v>
+        <v>0.02289855072463768</v>
       </c>
       <c r="W11">
-        <v>0.4268125854993161</v>
+        <v>-0.1334470989761092</v>
       </c>
       <c r="X11">
-        <v>3.99210607969651</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y11">
-        <v>-3.565293494197193</v>
+        <v>-0.1624333322012831</v>
       </c>
       <c r="Z11">
-        <v>3.930665710832407</v>
+        <v>-0.1020800559342772</v>
       </c>
       <c r="AA11">
-        <v>-0.05231101630622417</v>
+        <v>-0.1345918545708792</v>
       </c>
       <c r="AB11">
-        <v>0.04460701367958742</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC11">
-        <v>-0.09691802998581159</v>
+        <v>-0.1635780877960531</v>
       </c>
       <c r="AD11">
-        <v>64.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1.230026295667881</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>65.33002629566788</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>65.08502629566787</v>
+        <v>-0.316</v>
       </c>
       <c r="AH11">
-        <v>0.9957930693934099</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>-1.841840279900991</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.9957773000878003</v>
+        <v>-0.02343518243844557</v>
       </c>
       <c r="AK11">
-        <v>-1.822345631120351</v>
+        <v>-0.01301268324822928</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>150.1170960187354</v>
-      </c>
-      <c r="AP11">
-        <v>152.4239491701824</v>
+        <v>0.059</v>
+      </c>
+      <c r="AO11">
+        <v>-65.2542372881356</v>
+      </c>
+      <c r="AQ11">
+        <v>-65.2542372881356</v>
       </c>
     </row>
     <row r="12">
@@ -1727,7 +1736,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quinsam Capital Corporation (CNSX:QCA)</t>
+          <t>GreenBank Capital Inc. (OTCPK:GRNB.F)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1736,103 +1745,106 @@
         </is>
       </c>
       <c r="G12">
-        <v>-0</v>
+        <v>346.5</v>
       </c>
       <c r="H12">
-        <v>-0</v>
+        <v>386.5</v>
       </c>
       <c r="I12">
-        <v>1.365957446808511</v>
+        <v>256</v>
       </c>
       <c r="J12">
-        <v>1.365957446808511</v>
+        <v>256</v>
       </c>
       <c r="K12">
-        <v>-7.18</v>
+        <v>-0.505</v>
       </c>
       <c r="L12">
-        <v>1.527659574468085</v>
+        <v>252.5</v>
       </c>
       <c r="M12">
-        <v>1.543</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.1625922023182297</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>-0.2149025069637883</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.443</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.04668071654373024</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>-0.0616991643454039</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.1</v>
-      </c>
-      <c r="T12">
-        <v>0.712896953985742</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.695</v>
+        <v>0.049</v>
       </c>
       <c r="V12">
-        <v>0.0732349841938883</v>
+        <v>0.005072463768115943</v>
       </c>
       <c r="W12">
-        <v>-0.207514450867052</v>
+        <v>-1.823104693140794</v>
       </c>
       <c r="X12">
-        <v>0.04190534344985802</v>
+        <v>0.02942061424090324</v>
       </c>
       <c r="Y12">
-        <v>-0.24941979431691</v>
+        <v>-1.852525307381697</v>
       </c>
       <c r="Z12">
-        <v>-0.1387494833795831</v>
+        <v>-0.007246376811594202</v>
       </c>
       <c r="AA12">
-        <v>-0.1895258900631753</v>
+        <v>-1.855072463768116</v>
       </c>
       <c r="AB12">
-        <v>0.04190534344985802</v>
+        <v>0.029205363876093</v>
       </c>
       <c r="AC12">
-        <v>-0.2314312335130333</v>
+        <v>-1.884277827644209</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG12">
-        <v>-0.695</v>
+        <v>0.241</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.02914572864321608</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.2995867768595041</v>
       </c>
       <c r="AJ12">
-        <v>-0.07902217168845935</v>
+        <v>0.02434097565902434</v>
       </c>
       <c r="AK12">
-        <v>-0.02429645166928858</v>
+        <v>0.2622415669205658</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>-0.6004140786749482</v>
+      </c>
+      <c r="AP12">
+        <v>-0.4989648033126294</v>
       </c>
     </row>
     <row r="13">
@@ -1843,7 +1855,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bluesky Digital Assets Corp. (TSXV:BTC)</t>
+          <t>Entheos Capital Corp. (TSXV:ENTH.H)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1851,23 +1863,8 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="G13">
-        <v>-1.723970944309927</v>
-      </c>
-      <c r="H13">
-        <v>-1.723970944309927</v>
-      </c>
-      <c r="I13">
-        <v>-3.741853139738782</v>
-      </c>
-      <c r="J13">
-        <v>-3.741853139738782</v>
-      </c>
       <c r="K13">
-        <v>-3.3</v>
-      </c>
-      <c r="L13">
-        <v>-7.990314769975787</v>
+        <v>-0.151</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1891,177 +1888,61 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.249</v>
+        <v>0.633</v>
       </c>
       <c r="V13">
-        <v>0.1638157894736842</v>
+        <v>0.2252669039145908</v>
       </c>
       <c r="W13">
-        <v>4.621848739495798</v>
+        <v>-5.392857142857142</v>
       </c>
       <c r="X13">
-        <v>0.06201848579225618</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y13">
-        <v>4.559830253703542</v>
+        <v>-5.421843376082316</v>
       </c>
       <c r="Z13">
-        <v>0.07244436199622156</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-0.2710761633919346</v>
+        <v>-17.11111111111111</v>
       </c>
       <c r="AB13">
-        <v>0.04338812379651551</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC13">
-        <v>-0.3144642871884501</v>
+        <v>-17.14009734433628</v>
       </c>
       <c r="AD13">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.09192673356058492</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.831926733560585</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.582926733560585</v>
+        <v>-0.633</v>
       </c>
       <c r="AH13">
-        <v>0.546529467729332</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.4422885413972012</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.5101398999982795</v>
+        <v>-0.290767110702802</v>
       </c>
       <c r="AK13">
-        <v>0.4066161122207388</v>
+        <v>42.19999999999996</v>
       </c>
       <c r="AL13">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.116</v>
-      </c>
-      <c r="AN13">
-        <v>-1.19423472889499</v>
-      </c>
-      <c r="AO13">
-        <v>-13.44827586206896</v>
-      </c>
-      <c r="AP13">
-        <v>-1.086428780755377</v>
-      </c>
-      <c r="AQ13">
-        <v>-13.44827586206896</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Top Strike Resources Corp. (CNSX:VENI)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="K14">
-        <v>-1.44</v>
-      </c>
-      <c r="M14">
-        <v>0.198</v>
-      </c>
-      <c r="N14">
-        <v>0.07071428571428572</v>
-      </c>
-      <c r="O14">
-        <v>-0.1375</v>
-      </c>
-      <c r="P14">
-        <v>-0</v>
-      </c>
-      <c r="Q14">
-        <v>-0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.198</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>3.23</v>
-      </c>
-      <c r="V14">
-        <v>1.153571428571429</v>
-      </c>
-      <c r="W14">
-        <v>-0.2155688622754491</v>
-      </c>
-      <c r="X14">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="Y14">
-        <v>-0.2574742057253071</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>-0.2875206984796026</v>
-      </c>
-      <c r="AB14">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="AC14">
-        <v>-0.3294260419294606</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>-3.23</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>7.511627906976742</v>
-      </c>
-      <c r="AK14">
-        <v>-1.025396825396826</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>-0.17</v>
-      </c>
-      <c r="AQ14">
-        <v>11.23529411764706</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
